--- a/ESPN sports website/IPL/Mumbai Indians/Murugan Ashwin.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Murugan Ashwin.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>-</v>
       </c>
       <c r="H3" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>May 09, 2022</v>
+        <v>May 06, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Mumbai won by 5 runs</v>
       </c>
     </row>
     <row r="4">
@@ -565,16 +565,16 @@
         <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Punjab Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I5" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>April 13, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Punjab Kings won by 12 runs</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>-</v>
+        <v>0.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Gujarat Titans</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J6" t="str">
-        <v>May 06, 2022</v>
+        <v>April 13, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v>Punjab Kings won by 12 runs</v>
       </c>
     </row>
   </sheetData>
